--- a/data/processed/state_overviews/alaska_overview.xlsx
+++ b/data/processed/state_overviews/alaska_overview.xlsx
@@ -1364,27 +1364,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1396,27 +1396,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>

--- a/data/processed/state_overviews/alaska_overview.xlsx
+++ b/data/processed/state_overviews/alaska_overview.xlsx
@@ -364,27 +364,27 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,231 +431,231 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>County</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Aleutians East Borough</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$8,157</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.95%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.48%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Aleutians West Census Area</t>
+          <t>Alaska</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>548</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$3,103,569</t>
+          <t>$848,313,307</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.59%</t>
+          <t>7.18%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-47.02%</t>
+          <t>-28.55%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>79.01%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Anchorage Municipality</t>
+          <t>Aleutians East Borough</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$325,665,303</t>
+          <t>$8,157</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.98%</t>
+          <t>1.95%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-23.85%</t>
+          <t>0.48%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>79.23%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bethel Census Area</t>
+          <t>Aleutians West Census Area</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$10,516,417</t>
+          <t>$3,103,569</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-3.30%</t>
+          <t>6.59%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-71.02%</t>
+          <t>-47.02%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>83.33%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bristol Bay Borough</t>
+          <t>Anchorage Municipality</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>183</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$2,614,210</t>
+          <t>$325,665,303</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.60%</t>
+          <t>8.98%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-36.06%</t>
+          <t>-23.85%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>79.23%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Chugach Census Area</t>
+          <t>Bethel Census Area</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$9,456,517</t>
+          <t>$10,516,417</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.68%</t>
+          <t>-3.30%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-57.46%</t>
+          <t>-71.02%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>78.57%</t>
+          <t>83.33%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Copper River Census Area</t>
+          <t>Bristol Bay Borough</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -665,17 +665,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$3,461,801</t>
+          <t>$2,614,210</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7.91%</t>
+          <t>9.60%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-54.58%</t>
+          <t>-36.06%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -687,391 +687,391 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Denali Borough</t>
+          <t>Chugach Census Area</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$567,912</t>
+          <t>$9,456,517</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-5.23%</t>
+          <t>5.68%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-54.43%</t>
+          <t>-57.46%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>78.57%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Dillingham Census Area</t>
+          <t>Copper River Census Area</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$28,124,162</t>
+          <t>$3,461,801</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>19.65%</t>
+          <t>7.91%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-52.36%</t>
+          <t>-54.58%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>71.43%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Fairbanks North Star Borough</t>
+          <t>Denali Borough</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$73,253,026</t>
+          <t>$567,912</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8.39%</t>
+          <t>-5.23%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-19.50%</t>
+          <t>-54.43%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>72.06%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Haines Borough</t>
+          <t>Dillingham Census Area</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$942,909</t>
+          <t>$28,124,162</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-4.63%</t>
+          <t>19.65%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-37.56%</t>
+          <t>-52.36%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>77.78%</t>
+          <t>71.43%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hoonah-Angoon Census Area</t>
+          <t>Fairbanks North Star Borough</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>68</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$55,866</t>
+          <t>$73,253,026</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>56.65%</t>
+          <t>8.39%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>52.25%</t>
+          <t>-19.50%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>72.06%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Juneau City and Borough</t>
+          <t>Haines Borough</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$84,724,100</t>
+          <t>$942,909</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5.67%</t>
+          <t>-4.63%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-25.70%</t>
+          <t>-37.56%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>73.47%</t>
+          <t>77.78%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Kenai Peninsula Borough</t>
+          <t>Hoonah-Angoon Census Area</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$40,917,457</t>
+          <t>$55,866</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>6.08%</t>
+          <t>56.65%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-28.20%</t>
+          <t>52.25%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>79.71%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Ketchikan Gateway Borough</t>
+          <t>Juneau City and Borough</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>49</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$11,105,523</t>
+          <t>$84,724,100</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.73%</t>
+          <t>5.67%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-41.98%</t>
+          <t>-25.70%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>85.71%</t>
+          <t>73.47%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Kodiak Island Borough</t>
+          <t>Kenai Peninsula Borough</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>69</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$15,515,508</t>
+          <t>$40,917,457</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>15.07%</t>
+          <t>6.08%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-23.25%</t>
+          <t>-28.20%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>76.92%</t>
+          <t>79.71%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Kusilvak Census Area</t>
+          <t>Ketchikan Gateway Borough</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$1,487,132</t>
+          <t>$11,105,523</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-3.53%</t>
+          <t>1.73%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-100.02%</t>
+          <t>-41.98%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>85.71%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Lake and Peninsula Borough</t>
+          <t>Kodiak Island Borough</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$312,016</t>
+          <t>$15,515,508</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>46.89%</t>
+          <t>15.07%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-20.68%</t>
+          <t>-23.25%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>76.92%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Matanuska-Susitna Borough</t>
+          <t>Kusilvak Census Area</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$144,070,688</t>
+          <t>$1,487,132</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4.66%</t>
+          <t>-3.53%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-37.93%</t>
+          <t>-100.02%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>81.63%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Nome Census Area</t>
+          <t>Lake and Peninsula Borough</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1081,17 +1081,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$53,907,395</t>
+          <t>$312,016</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>19.43%</t>
+          <t>46.89%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-49.55%</t>
+          <t>-20.68%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1103,59 +1103,59 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>North Slope Borough</t>
+          <t>Matanuska-Susitna Borough</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>49</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$21,463,109</t>
+          <t>$144,070,688</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>11.05%</t>
+          <t>4.66%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>-46.77%</t>
+          <t>-37.93%</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>81.63%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Northwest Arctic Borough</t>
+          <t>Nome Census Area</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$92,214</t>
+          <t>$53,907,395</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4.05%</t>
+          <t>19.43%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>-10.33%</t>
+          <t>-49.55%</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1167,27 +1167,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Petersburg Borough</t>
+          <t>North Slope Borough</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$3,341,058</t>
+          <t>$21,463,109</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-11.93%</t>
+          <t>11.05%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>-30.35%</t>
+          <t>-46.77%</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1199,7 +1199,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Prince of Wales-Hyder Census Area</t>
+          <t>Northwest Arctic Borough</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1209,17 +1209,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$803,158</t>
+          <t>$92,214</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>32.10%</t>
+          <t>4.05%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>-45.60%</t>
+          <t>-10.33%</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1231,224 +1231,192 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sitka City and Borough</t>
+          <t>Petersburg Borough</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$9,553,762</t>
+          <t>$3,341,058</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>8.40%</t>
+          <t>-11.93%</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>-10.62%</t>
+          <t>-30.35%</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>73.91%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Southeast Fairbanks Census Area</t>
+          <t>Prince of Wales-Hyder Census Area</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$1,391,410</t>
+          <t>$803,158</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2.66%</t>
+          <t>32.10%</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>-39.85%</t>
+          <t>-45.60%</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>87.50%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Wrangell City and Borough</t>
+          <t>Sitka City and Borough</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$39,048</t>
+          <t>$9,553,762</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>34.23%</t>
+          <t>8.40%</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>-4.50%</t>
+          <t>-10.62%</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>73.91%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Yukon-Koyukuk Census Area</t>
+          <t>Southeast Fairbanks Census Area</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$1,819,880</t>
+          <t>$1,391,410</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-0.78%</t>
+          <t>2.66%</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>-58.91%</t>
+          <t>-39.85%</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>87.50%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Yakutat City and Borough</t>
+          <t>Wrangell City and Borough</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$39,048</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>34.23%</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-4.50%</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Skagway Municipality</t>
+          <t>Yukon-Koyukuk Census Area</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$1,819,880</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-0.78%</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-58.91%</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>548</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>$848,313,307</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>7.18%</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>-28.55%</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>79.01%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1459,7 +1427,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1468,71 +1436,71 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Congressional District</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Congressional District (at Large)</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>548</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$848,313,307</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.18%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-28.55%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>79.01%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Alaska</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1556,6 +1524,38 @@
         </is>
       </c>
       <c r="F3" t="inlineStr">
+        <is>
+          <t>79.01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Congressional district (at large)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>548</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>$848,313,307</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.18%</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-28.55%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>79.01%</t>
         </is>
@@ -1582,34 +1582,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Between $100K and $499K</t>
+          <t>$100K to $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1641,128 +1641,128 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Between $1M and $4.99M</t>
+          <t>$10M or more</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$175,547,849</t>
+          <t>$476,685,012</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.98%</t>
+          <t>2.76%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-39.00%</t>
+          <t>-23.45%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>83.65%</t>
+          <t>90.91%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Between $500K and $999K</t>
+          <t>$1M to $4.9M</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>159</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$36,598,209</t>
+          <t>$175,547,849</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.68%</t>
+          <t>6.98%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-31.43%</t>
+          <t>-39.00%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>75.70%</t>
+          <t>83.65%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Between $5M and $9.99M</t>
+          <t>$500K to $999K</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>107</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$137,353,241</t>
+          <t>$36,598,209</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.32%</t>
+          <t>7.68%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-42.30%</t>
+          <t>-31.43%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>89.47%</t>
+          <t>75.70%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Greater than $10M</t>
+          <t>$5M to $9.9M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$476,685,012</t>
+          <t>$137,353,241</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.76%</t>
+          <t>4.32%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-23.45%</t>
+          <t>-42.30%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>90.91%</t>
+          <t>89.47%</t>
         </is>
       </c>
     </row>
@@ -1851,34 +1851,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, Culture, and Humanities</t>
+          <t>Arts, culture, and humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1910,7 +1910,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education (Excluding Universities)</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1942,7 +1942,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and Animals</t>
+          <t>Environment and animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1974,7 +1974,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health (Excluding Hospitals)</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2038,7 +2038,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human Services</t>
+          <t>Human services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2070,7 +2070,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, Foreign Affairs</t>
+          <t>International, foreign affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2102,160 +2102,160 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mutual/Membership Benefit</t>
+          <t>Public, societal benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$37,000</t>
+          <t>$136,387,682</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.13%</t>
+          <t>3.92%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-8.73%</t>
+          <t>-46.42%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>84.91%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Public, Societal Benefit</t>
+          <t>Religion-related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$136,387,682</t>
+          <t>$4,055,383</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.92%</t>
+          <t>17.91%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-46.42%</t>
+          <t>2.75%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>84.91%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Religion Related</t>
+          <t>Mutual/membership benefit</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$4,055,383</t>
+          <t>$37,000</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>17.91%</t>
+          <t>4.13%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.75%</t>
+          <t>-8.73%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$360,861,065</t>
+          <t>$4,996,067</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6.33%</t>
+          <t>-0.85%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-35.03%</t>
+          <t>-23.06%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>81.16%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>138</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$4,996,067</t>
+          <t>$360,861,065</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-0.85%</t>
+          <t>6.33%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-23.06%</t>
+          <t>-35.03%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>81.16%</t>
         </is>
       </c>
     </row>

--- a/data/processed/state_overviews/alaska_overview.xlsx
+++ b/data/processed/state_overviews/alaska_overview.xlsx
@@ -364,54 +364,54 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>79.01%</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>548</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>$848,313,307</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>7.18%</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>-28.55%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>79.01%</t>
         </is>
       </c>
     </row>
@@ -436,27 +436,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -468,27 +468,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -500,27 +500,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>79.01%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>548</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$848,313,307</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>7.18%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-28.55%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>79.01%</t>
         </is>
       </c>
     </row>
@@ -532,27 +532,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$8,157</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1.95%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>0.48%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -564,27 +564,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$3,103,569</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>6.59%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-47.02%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -596,27 +596,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>79.23%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>183</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$325,665,303</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>8.98%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-23.85%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>79.23%</t>
         </is>
       </c>
     </row>
@@ -628,27 +628,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>83.33%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$10,516,417</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>-3.30%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-71.02%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>83.33%</t>
         </is>
       </c>
     </row>
@@ -660,27 +660,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$2,614,210</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>9.60%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-36.06%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -692,27 +692,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>78.57%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$9,456,517</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>5.68%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-57.46%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>78.57%</t>
         </is>
       </c>
     </row>
@@ -724,27 +724,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$3,461,801</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>7.91%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>-54.58%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -756,27 +756,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>$567,912</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>-5.23%</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>-54.43%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -788,27 +788,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>71.43%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>$28,124,162</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>19.65%</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>-52.36%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>71.43%</t>
         </is>
       </c>
     </row>
@@ -820,27 +820,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>72.06%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>68</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$73,253,026</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>8.39%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-19.50%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>72.06%</t>
         </is>
       </c>
     </row>
@@ -852,27 +852,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>77.78%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$942,909</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>-4.63%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-37.56%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>77.78%</t>
         </is>
       </c>
     </row>
@@ -884,27 +884,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>$55,866</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>56.65%</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>52.25%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -916,27 +916,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>73.47%</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>49</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>$84,724,100</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>5.67%</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>-25.70%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>73.47%</t>
         </is>
       </c>
     </row>
@@ -948,27 +948,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>79.71%</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>69</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>$40,917,457</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>6.08%</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>-28.20%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>79.71%</t>
         </is>
       </c>
     </row>
@@ -980,27 +980,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>85.71%</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>$11,105,523</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1.73%</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>-41.98%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>85.71%</t>
         </is>
       </c>
     </row>
@@ -1012,27 +1012,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>76.92%</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>$15,515,508</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>15.07%</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>-23.25%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>76.92%</t>
         </is>
       </c>
     </row>
@@ -1044,27 +1044,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>$1,487,132</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>-3.53%</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>-100.02%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1076,27 +1076,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>$312,016</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>46.89%</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>-20.68%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1108,27 +1108,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>81.63%</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>49</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>$144,070,688</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>4.66%</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>-37.93%</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>81.63%</t>
         </is>
       </c>
     </row>
@@ -1140,27 +1140,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>$53,907,395</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>19.43%</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>-49.55%</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1172,27 +1172,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>$21,463,109</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>11.05%</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>-46.77%</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1204,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>$92,214</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>4.05%</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>-10.33%</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1236,27 +1236,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>$3,341,058</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>-11.93%</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>-30.35%</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1268,27 +1268,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>$803,158</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>32.10%</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>-45.60%</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1300,27 +1300,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>73.91%</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>23</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>$9,553,762</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>8.40%</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>-10.62%</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>73.91%</t>
         </is>
       </c>
     </row>
@@ -1332,27 +1332,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>87.50%</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>$1,391,410</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2.66%</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>-39.85%</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>87.50%</t>
         </is>
       </c>
     </row>
@@ -1364,27 +1364,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>$39,048</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>34.23%</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>-4.50%</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1396,27 +1396,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>$1,819,880</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>-0.78%</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>-58.91%</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1441,27 +1441,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -1473,27 +1473,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -1505,59 +1505,59 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>79.01%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>548</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$848,313,307</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>7.18%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-28.55%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>79.01%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Congressional district (at large)</t>
+          <t>Congressional District (at Large)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>79.01%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>548</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$848,313,307</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>7.18%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-28.55%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>79.01%</t>
         </is>
       </c>
     </row>
@@ -1582,187 +1582,187 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>$100K to $499K</t>
+          <t>Between $100K and $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>73.37%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>169</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$20,544,669</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>8.80%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-21.05%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>73.37%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>$10M or more</t>
+          <t>Between $1M and $4.99M</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>83.65%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$476,685,012</t>
+          <t>159</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.76%</t>
+          <t>$175,547,849</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-23.45%</t>
+          <t>6.98%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>90.91%</t>
+          <t>-39.00%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>$1M to $4.9M</t>
+          <t>Between $500K and $999K</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>75.70%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$175,547,849</t>
+          <t>107</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.98%</t>
+          <t>$36,598,209</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-39.00%</t>
+          <t>7.68%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>83.65%</t>
+          <t>-31.43%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>$500K to $999K</t>
+          <t>Between $5M and $9.99M</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>89.47%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$36,598,209</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.68%</t>
+          <t>$137,353,241</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-31.43%</t>
+          <t>4.32%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>75.70%</t>
+          <t>-42.30%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>$5M to $9.9M</t>
+          <t>Greater than $10M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>90.91%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$137,353,241</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.32%</t>
+          <t>$476,685,012</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-42.30%</t>
+          <t>2.76%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>89.47%</t>
+          <t>-23.45%</t>
         </is>
       </c>
     </row>
@@ -1774,27 +1774,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>67.74%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>31</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$1,584,327</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>20.10%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-19.11%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>67.74%</t>
         </is>
       </c>
     </row>
@@ -1806,27 +1806,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>79.01%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>548</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$848,313,307</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>7.18%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-28.55%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>79.01%</t>
         </is>
       </c>
     </row>
@@ -1851,155 +1851,155 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, culture, and humanities</t>
+          <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>76.47%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>51</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$59,127,225</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>11.83%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-16.15%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>76.47%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Education (Excluding Universities)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>74.19%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>31</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$40,766,737</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>8.09%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-45.57%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>74.19%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and animals</t>
+          <t>Environment and Animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>69.05%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>42</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$19,223,496</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>14.09%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-10.97%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>69.05%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>78.95%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>57</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$76,787,383</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>5.12%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-29.80%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>78.95%</t>
         </is>
       </c>
     </row>
@@ -2011,251 +2011,251 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$21,063,265</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>3.72%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-2.73%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human services</t>
+          <t>Human Services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>165</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$124,867,243</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>6.08%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-26.31%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, foreign affairs</t>
+          <t>International, Foreign Affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$140,761</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>18.94%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>7.26%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, societal benefit</t>
+          <t>Mutual/Membership Benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>100.00%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$136,387,682</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.92%</t>
+          <t>$37,000</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-46.42%</t>
+          <t>4.13%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>84.91%</t>
+          <t>-8.73%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion-related</t>
+          <t>Public, Societal Benefit</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>84.91%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$4,055,383</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>17.91%</t>
+          <t>$136,387,682</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.75%</t>
+          <t>3.92%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>-46.42%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mutual/membership benefit</t>
+          <t>Religion Related</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>50.00%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$37,000</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.13%</t>
+          <t>$4,055,383</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-8.73%</t>
+          <t>17.91%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>2.75%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>81.16%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$4,996,067</t>
+          <t>138</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-0.85%</t>
+          <t>$360,861,065</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-23.06%</t>
+          <t>6.33%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>-35.03%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>100.00%</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$360,861,065</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6.33%</t>
+          <t>$4,996,067</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-35.03%</t>
+          <t>-0.85%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>81.16%</t>
+          <t>-23.06%</t>
         </is>
       </c>
     </row>
@@ -2267,27 +2267,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>79.01%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>548</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$848,313,307</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>7.18%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-28.55%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>79.01%</t>
         </is>
       </c>
     </row>
